--- a/Datasheets/PMIC/bq25505(70_Design_Help_V1_3.xlsx
+++ b/Datasheets/PMIC/bq25505(70_Design_Help_V1_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CU Boulder\Course Material\SEM-III\LPEDT\Repository\ECEN5833-LowPowerEmbeddedDesign-Project\Datasheets\PMIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46124EBD-E499-42FD-943B-C3803B741EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5A84F-73ED-4FD7-ACE6-01C75CC4D919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,8 +2180,8 @@
   <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2389,7 +2389,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="11">
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>1</v>
@@ -2582,15 +2582,15 @@
       </c>
       <c r="I13" s="28">
         <f>C1/I9*I7</f>
-        <v>5.0741935483870968</v>
+        <v>3.8365853658536588</v>
       </c>
       <c r="J13" s="46">
         <f>IF(I13&gt;1,VLOOKUP(I13*10,$AA$27:$AA$133,1)/10,IF(I13&gt;0.099,VLOOKUP(I13*100,$AB$27:$AB$133,1)/100,VLOOKUP(I13*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>4.99</v>
+        <v>3.8299999999999996</v>
       </c>
       <c r="K13" s="46">
         <f ca="1">IF(I13&gt;1,OFFSET($AA$27,MATCH(I13*10,$AA$27:$AA$133,1),0)/10,IF(I13&gt;0.099, OFFSET($AB$27,MATCH(I13*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(I13*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>5.1100000000000003</v>
+        <v>3.9200000000000004</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>59</v>
@@ -2652,15 +2652,15 @@
       </c>
       <c r="I14" s="28">
         <f>(I8/C1-1)*I13</f>
-        <v>7.506451612903227</v>
+        <v>6.626829268292683</v>
       </c>
       <c r="J14" s="46">
         <f>IF(I14&gt;1,VLOOKUP(I14*10,$AA$27:$AA$133,1)/10,IF(I14&gt;0.099,VLOOKUP(I14*100,$AB$27:$AB$133,1)/100,VLOOKUP(I14*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>7.5</v>
+        <v>6.49</v>
       </c>
       <c r="K14" s="46">
         <f ca="1">IF(I14&gt;1,OFFSET($AA$27,MATCH(I14*10,$AA$27:$AA$133,1),0)/10,IF(I14&gt;0.099, OFFSET($AB$27,MATCH(I14*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(I14*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>7.68</v>
+        <v>6.65</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>59</v>
@@ -2729,15 +2729,15 @@
       </c>
       <c r="I15" s="28">
         <f>I7-I13-I14</f>
-        <v>0.41935483870967616</v>
+        <v>2.536585365853659</v>
       </c>
       <c r="J15" s="46">
         <f>IF(I15&gt;1,VLOOKUP(I15*10,$AA$27:$AA$133,1)/10,IF(I15&gt;0.099,VLOOKUP(I15*100,$AB$27:$AB$133,1)/100,VLOOKUP(I15*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>0.41200000000000003</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="K15" s="46">
         <f ca="1">IF(I15&gt;1,OFFSET($AA$27,MATCH(I15*10,$AA$27:$AA$133,1),0)/10,IF(I15&gt;0.099, OFFSET($AB$27,MATCH(I15*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(I15*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>0.42200000000000004</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L15" s="47" t="s">
         <v>59</v>
@@ -2804,11 +2804,11 @@
       <c r="I16" s="16"/>
       <c r="J16" s="46">
         <f>C1*(1+J14/J13)</f>
-        <v>3.0286372745490979</v>
+        <v>3.2603655352480421</v>
       </c>
       <c r="K16" s="46">
         <f ca="1">C1*(1+K14/K13)</f>
-        <v>3.028551859099804</v>
+        <v>3.2626785714285709</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>1</v>
@@ -2865,11 +2865,11 @@
       <c r="I17" s="16"/>
       <c r="J17" s="46">
         <f>(C1*((J13+J14+J15)/J13))</f>
-        <v>3.1285410821643289</v>
+        <v>4.0470234986945171</v>
       </c>
       <c r="K17" s="53">
         <f ca="1">(C1*((K13+K14+K15)/K13))</f>
-        <v>3.128477495107632</v>
+        <v>4.0497959183673462</v>
       </c>
       <c r="L17" s="47" t="s">
         <v>1</v>
@@ -2947,7 +2947,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="11">
-        <v>5.1100000000000003</v>
+        <v>3.9</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>58</v>
@@ -2996,7 +2996,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="11">
-        <v>7.68</v>
+        <v>6.65</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>58</v>
@@ -3041,7 +3041,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="11">
-        <v>0.42199999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>58</v>
@@ -3127,14 +3127,14 @@
       </c>
       <c r="I23" s="56">
         <f>C1*(1+I20/I19)</f>
-        <v>3.028551859099804</v>
+        <v>3.2732051282051282</v>
       </c>
       <c r="J23" s="70" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="57">
         <f>(I23-I8)/I23*100</f>
-        <v>0.94275615634630772</v>
+        <v>-0.81861266695389345</v>
       </c>
       <c r="L23" s="74" t="s">
         <v>2</v>
@@ -3174,14 +3174,14 @@
       </c>
       <c r="I24" s="68">
         <f>(C1*((I19+I20+I21)/I19))</f>
-        <v>3.128477495107632</v>
+        <v>4.1233076923076926</v>
       </c>
       <c r="J24" s="85" t="s">
         <v>1</v>
       </c>
       <c r="K24" s="69">
         <f>(I24-I9)/I24*100</f>
-        <v>0.91026689986312748</v>
+        <v>0.56526686939165327</v>
       </c>
       <c r="L24" s="73" t="s">
         <v>2</v>
